--- a/StructureDefinition-profile-MedicationRequest.xlsx
+++ b/StructureDefinition-profile-MedicationRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="563">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7366883-06:00</t>
+    <t>2026-02-09T22:05:43.2078076-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -432,33 +432,137 @@
     <t>MedicationRequest.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:statusChanged</t>
+  </si>
+  <si>
+    <t>statusChanged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.statusChanged|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationRequest.statusChanged from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date (and perhaps time) when the status was changed.</t>
+  </si>
+  <si>
+    <t>Element `MedicationRequest.statusChanged` is will have a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:device</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.device|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationRequest.device from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The intended type of device that is to be used for the administration of the medication (for example, PCA Pump).</t>
+  </si>
+  <si>
+    <t>Element `MedicationRequest.device` is will have a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:renderedDosageInstruction</t>
+  </si>
+  <si>
+    <t>renderedDosageInstruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.renderedDosageInstruction|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationRequest.renderedDosageInstruction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The full representation of the dose of the medication included in all dosage instructions.  To be used when multiple dosage instructions are included to represent complex dosing such as increasing or tapering doses.</t>
+  </si>
+  <si>
+    <t>Element `MedicationRequest.renderedDosageInstruction` is will have a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:effectiveDosePeriod</t>
+  </si>
+  <si>
+    <t>effectiveDosePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.effectiveDosePeriod|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationRequest.effectiveDosePeriod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The period over which the medication is to be taken.  Where there are multiple dosageInstruction lines (for example, tapering doses), this is the earliest date and the latest end date of the dosageInstructions.</t>
+  </si>
+  <si>
+    <t>Element `MedicationRequest.effectiveDosePeriod` is will have a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:informationSource</t>
+  </si>
+  <si>
+    <t>informationSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationRequest.informationSource from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationRequest.informationSource` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicationRequest.informationSource` is will have a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MedicationRequest.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -466,6 +570,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -555,20 +662,13 @@
     <t>MedicationRequest.status.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.status.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.status|0.0.1-snapshot-3}
@@ -578,12 +678,8 @@
     <t>Cross-version extension for MedicationRequest.status from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.
-Clinical decision support systems should take the status into account when determining which medications to include in their algorithms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Note that the target element context `MedicationRequest.status` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `MedicationRequest.status` is mapped to FHIR R4 element `MedicationRequest.status`.</t>
   </si>
   <si>
     <t>MedicationRequest.status.value</t>
@@ -954,14 +1050,20 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.performer|0.0.1-snapshot-3}
-</t>
+    <t>MedicationRequest.performer.extension:performer</t>
+  </si>
+  <si>
+    <t>performer</t>
   </si>
   <si>
     <t>Cross-version extension for MedicationRequest.performer from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The specified desired performer of the medication treatment (e.g. the performer of the medication administration).  For devices, this is the device that is intended to perform the administration of the medication.  An IV Pump would be an example of a device that is performing the administration.  Both the IV Pump and the practitioner that set the rate or bolus on the pump can be listed as performers.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DeviceDefinition,http://hl7.org/fhir/StructureDefinition/HealthcareService in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationRequest.performer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicationRequest.performer` is mapped to FHIR R4 element `MedicationRequest.performer`.</t>
   </si>
   <si>
     <t>MedicationRequest.performer.reference</t>
@@ -1316,7 +1418,42 @@
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>MedicationRequest.dispenseRequest.extension:dispenserInstruction</t>
+  </si>
+  <si>
+    <t>dispenserInstruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.dispenseRequest.dispenserInstruction|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationRequest.dispenseRequest.dispenserInstruction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Provides additional information to the dispenser, for example, counselling to be provided to the patient.</t>
+  </si>
+  <si>
+    <t>Element `MedicationRequest.dispenseRequest.dispenserInstruction` is will have a context of MedicationRequest.dispenseRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.extension:doseAdministrationAid</t>
+  </si>
+  <si>
+    <t>doseAdministrationAid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.dispenseRequest.doseAdministrationAid|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationRequest.dispenseRequest.doseAdministrationAid from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Provides information about the type of adherence packaging to be supplied for the medication dispense.</t>
+  </si>
+  <si>
+    <t>Element `MedicationRequest.dispenseRequest.doseAdministrationAid` is will have a context of MedicationRequest.dispenseRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.modifierExtension</t>
@@ -1355,6 +1492,12 @@
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.initialFill.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.initialFill.modifierExtension</t>
@@ -1947,7 +2090,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO73"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1956,9 +2099,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.05078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="53.05078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1966,7 +2109,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="113.71875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="116.77734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2947,7 +3090,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2966,17 +3109,15 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>81</v>
@@ -3013,16 +3154,14 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>140</v>
@@ -3046,7 +3185,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -3060,43 +3199,43 @@
         <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
       </c>
@@ -3144,7 +3283,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3153,7 +3292,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>141</v>
@@ -3165,7 +3304,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -3176,12 +3315,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>81</v>
       </c>
@@ -3202,16 +3343,16 @@
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3261,7 +3402,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3270,41 +3411,43 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>90</v>
@@ -3313,13 +3456,13 @@
         <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>158</v>
@@ -3354,13 +3497,13 @@
         <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>81</v>
@@ -3378,31 +3521,31 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -3410,12 +3553,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3436,15 +3581,17 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3493,19 +3640,19 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>81</v>
@@ -3525,18 +3672,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>80</v>
@@ -3551,15 +3700,17 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3596,17 +3747,19 @@
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3645,37 +3798,39 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3723,7 +3878,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3732,7 +3887,7 @@
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>141</v>
@@ -3744,7 +3899,7 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3755,10 +3910,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3769,7 +3924,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3781,15 +3936,17 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3838,42 +3995,42 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3881,7 +4038,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
@@ -3890,22 +4047,22 @@
         <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3931,13 +4088,13 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
@@ -3955,10 +4112,10 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>90</v>
@@ -3970,16 +4127,16 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -3987,10 +4144,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3998,7 +4155,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
@@ -4007,23 +4164,21 @@
         <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -4048,13 +4203,13 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
@@ -4072,10 +4227,10 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>90</v>
@@ -4084,19 +4239,19 @@
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -4104,10 +4259,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4115,7 +4270,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>80</v>
@@ -4130,17 +4285,15 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -4165,31 +4318,29 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4201,19 +4352,19 @@
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4221,18 +4372,20 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>90</v>
@@ -4244,18 +4397,20 @@
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -4280,13 +4435,13 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
@@ -4304,31 +4459,31 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4336,10 +4491,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4356,23 +4511,21 @@
         <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4421,7 +4574,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4433,7 +4586,7 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
@@ -4442,7 +4595,7 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4453,10 +4606,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4476,18 +4629,20 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4512,13 +4667,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4536,7 +4691,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4551,13 +4706,13 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4568,10 +4723,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4588,22 +4743,22 @@
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4629,13 +4784,13 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -4653,7 +4808,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>90</v>
@@ -4668,27 +4823,27 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>243</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4696,10 +4851,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4708,19 +4863,19 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4746,13 +4901,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -4770,13 +4925,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -4785,27 +4940,27 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>253</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4825,20 +4980,18 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4863,13 +5016,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4887,7 +5040,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4902,27 +5055,27 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4933,27 +5086,29 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5002,13 +5157,13 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
@@ -5017,16 +5172,16 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -5034,10 +5189,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5060,13 +5215,13 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5117,7 +5272,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5132,27 +5287,27 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5160,7 +5315,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
@@ -5175,15 +5330,17 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5208,13 +5365,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5232,10 +5389,10 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>90</v>
@@ -5247,27 +5404,27 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5275,7 +5432,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>90</v>
@@ -5287,18 +5444,20 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5347,10 +5506,10 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>90</v>
@@ -5362,27 +5521,27 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5405,15 +5564,17 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>169</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5462,7 +5623,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5474,30 +5635,30 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5505,7 +5666,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
@@ -5520,13 +5681,13 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5565,19 +5726,19 @@
         <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>178</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5589,19 +5750,19 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5609,10 +5770,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5623,7 +5784,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5632,16 +5793,16 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5692,42 +5853,42 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5750,17 +5911,15 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5809,7 +5968,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5818,22 +5977,22 @@
         <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5841,10 +6000,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5864,20 +6023,18 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5902,13 +6059,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -5926,7 +6083,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5941,16 +6098,16 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
@@ -5958,10 +6115,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5981,20 +6138,18 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6043,7 +6198,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>205</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6055,7 +6210,7 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
@@ -6064,7 +6219,7 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6075,10 +6230,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6089,7 +6244,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6098,20 +6253,18 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>321</v>
+        <v>136</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6148,31 +6301,31 @@
         <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>207</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -6181,7 +6334,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6192,12 +6345,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6215,19 +6370,19 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6253,13 +6408,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6277,28 +6432,28 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>325</v>
+        <v>207</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6309,10 +6464,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6332,18 +6487,20 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6392,7 +6549,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6401,7 +6558,7 @@
         <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>102</v>
@@ -6413,10 +6570,10 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6424,10 +6581,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6438,7 +6595,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6447,19 +6604,19 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6485,7 +6642,7 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>191</v>
+        <v>342</v>
       </c>
       <c r="Y39" t="s" s="2">
         <v>343</v>
@@ -6509,13 +6666,13 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
@@ -6524,27 +6681,27 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>345</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>347</v>
+        <v>133</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6555,7 +6712,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -6564,19 +6721,19 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>351</v>
+        <v>181</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6632,7 +6789,7 @@
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
@@ -6641,16 +6798,16 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>355</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6658,10 +6815,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6672,7 +6829,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6684,15 +6841,17 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>358</v>
+        <v>202</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6741,13 +6900,13 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
@@ -6756,13 +6915,13 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>362</v>
+        <v>133</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6773,10 +6932,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6787,7 +6946,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6799,15 +6958,17 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6832,13 +6993,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -6856,13 +7017,13 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
@@ -6871,13 +7032,13 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6888,10 +7049,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6902,7 +7063,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6911,16 +7072,16 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6971,13 +7132,13 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
@@ -6986,16 +7147,16 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7003,10 +7164,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7017,7 +7178,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
@@ -7026,21 +7187,21 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>375</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7064,13 +7225,13 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -7088,13 +7249,13 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
@@ -7103,27 +7264,27 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>81</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7134,7 +7295,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7146,16 +7307,16 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>187</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7181,37 +7342,37 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
@@ -7220,16 +7381,16 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7237,10 +7398,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7260,16 +7421,16 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7320,7 +7481,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7335,13 +7496,13 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7352,10 +7513,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7375,16 +7536,16 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>392</v>
+        <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7435,7 +7596,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7450,13 +7611,13 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>395</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7490,7 +7651,7 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>399</v>
@@ -7501,9 +7662,7 @@
       <c r="M48" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="N48" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7567,13 +7726,13 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7584,10 +7743,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7607,19 +7766,21 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7667,7 +7828,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7682,13 +7843,13 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>408</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7699,10 +7860,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7725,15 +7886,17 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>292</v>
+        <v>411</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7758,13 +7921,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -7782,7 +7945,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>172</v>
+        <v>410</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7794,7 +7957,7 @@
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
@@ -7803,7 +7966,7 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>294</v>
+        <v>416</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7814,14 +7977,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7840,17 +8003,15 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>136</v>
+        <v>418</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>137</v>
+        <v>419</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7899,7 +8060,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>178</v>
+        <v>417</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7911,16 +8072,16 @@
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>294</v>
+        <v>422</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -7931,14 +8092,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7951,26 +8112,22 @@
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>424</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8018,7 +8175,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8030,16 +8187,16 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>133</v>
+        <v>429</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8050,10 +8207,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8064,7 +8221,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8076,16 +8233,16 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8135,13 +8292,13 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
@@ -8150,13 +8307,13 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8167,10 +8324,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8193,13 +8350,13 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>169</v>
+        <v>438</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>292</v>
+        <v>439</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>293</v>
+        <v>440</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8250,7 +8407,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>172</v>
+        <v>437</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8262,16 +8419,16 @@
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>81</v>
+        <v>441</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>294</v>
+        <v>442</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8282,21 +8439,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8308,17 +8465,15 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>137</v>
+        <v>322</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8367,19 +8522,19 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
@@ -8388,7 +8543,7 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8399,14 +8554,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8419,26 +8574,22 @@
         <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="M56" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8474,19 +8625,17 @@
         <v>81</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>418</v>
+        <v>207</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8507,7 +8656,7 @@
         <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8518,12 +8667,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>81</v>
       </c>
@@ -8532,7 +8683,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8544,15 +8695,17 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8601,19 +8754,19 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>427</v>
+        <v>207</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
@@ -8622,7 +8775,7 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8633,12 +8786,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8659,15 +8814,17 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8716,19 +8873,19 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>432</v>
+        <v>207</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
@@ -8737,7 +8894,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -8748,42 +8905,46 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>433</v>
+        <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -8831,19 +8992,19 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
@@ -8852,7 +9013,7 @@
         <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>436</v>
+        <v>133</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -8863,10 +9024,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8889,20 +9050,18 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
@@ -8950,7 +9109,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8968,10 +9127,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>446</v>
+        <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -8982,10 +9141,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9008,17 +9167,15 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>449</v>
+        <v>202</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>450</v>
+        <v>322</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9067,7 +9224,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>448</v>
+        <v>205</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9079,41 +9236,41 @@
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>454</v>
+        <v>324</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>455</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9125,15 +9282,17 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>428</v>
+        <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9182,76 +9341,78 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>456</v>
+        <v>207</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>460</v>
+        <v>324</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>433</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9299,28 +9460,28 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>467</v>
+        <v>133</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9331,10 +9492,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9357,13 +9518,13 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9414,7 +9575,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9435,10 +9596,10 @@
         <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -9446,10 +9607,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9472,13 +9633,13 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>406</v>
+        <v>478</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9529,7 +9690,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9547,10 +9708,10 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>476</v>
+        <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -9561,10 +9722,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9587,13 +9748,13 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>169</v>
+        <v>478</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>292</v>
+        <v>483</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>293</v>
+        <v>484</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9644,7 +9805,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>172</v>
+        <v>482</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9656,7 +9817,7 @@
         <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>81</v>
@@ -9665,7 +9826,7 @@
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>294</v>
+        <v>481</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -9676,21 +9837,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>81</v>
@@ -9702,18 +9863,20 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>136</v>
+        <v>486</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>137</v>
+        <v>487</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>413</v>
+        <v>488</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>81</v>
       </c>
@@ -9761,28 +9924,28 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>178</v>
+        <v>485</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>81</v>
+        <v>491</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>294</v>
+        <v>492</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -9793,46 +9956,44 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>136</v>
+        <v>494</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>417</v>
+        <v>496</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
       </c>
@@ -9880,42 +10041,42 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>418</v>
+        <v>493</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>81</v>
+        <v>498</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>133</v>
+        <v>499</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>81</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9923,7 +10084,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>90</v>
@@ -9938,17 +10099,15 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -9973,13 +10132,13 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>486</v>
+        <v>81</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>487</v>
+        <v>81</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -9997,10 +10156,10 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>90</v>
@@ -10015,24 +10174,24 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>489</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10055,15 +10214,17 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>187</v>
+        <v>478</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
@@ -10088,13 +10249,13 @@
         <v>81</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>493</v>
+        <v>81</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>494</v>
+        <v>81</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>81</v>
@@ -10112,7 +10273,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10130,24 +10291,24 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>497</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10170,13 +10331,13 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10227,7 +10388,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10242,16 +10403,16 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>495</v>
+        <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
@@ -10259,21 +10420,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>505</v>
+        <v>81</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>81</v>
@@ -10285,17 +10446,15 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>506</v>
+        <v>438</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10344,13 +10503,13 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>81</v>
@@ -10362,10 +10521,10 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10376,10 +10535,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10390,7 +10549,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
@@ -10402,17 +10561,15 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>512</v>
+        <v>202</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>513</v>
+        <v>322</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>81</v>
@@ -10461,33 +10618,850 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>511</v>
+        <v>205</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AI73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
+      <c r="H74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK73" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO73" t="s" s="2">
+      <c r="AK76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MedicationRequest.xlsx
+++ b/StructureDefinition-profile-MedicationRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="561">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2078076-06:00</t>
+    <t>2026-02-17T14:42:26.8508553-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -472,7 +472,7 @@
     <t>The date (and perhaps time) when the status was changed.</t>
   </si>
   <si>
-    <t>Element `MedicationRequest.statusChanged` is will have a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
+    <t>Element `MedicationRequest.statusChanged` has a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -495,7 +495,7 @@
     <t>The intended type of device that is to be used for the administration of the medication (for example, PCA Pump).</t>
   </si>
   <si>
-    <t>Element `MedicationRequest.device` is will have a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
+    <t>Element `MedicationRequest.device` has a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
   </si>
   <si>
     <t>MedicationRequest.extension:renderedDosageInstruction</t>
@@ -514,7 +514,7 @@
     <t>The full representation of the dose of the medication included in all dosage instructions.  To be used when multiple dosage instructions are included to represent complex dosing such as increasing or tapering doses.</t>
   </si>
   <si>
-    <t>Element `MedicationRequest.renderedDosageInstruction` is will have a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
+    <t>Element `MedicationRequest.renderedDosageInstruction` has a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
   </si>
   <si>
     <t>MedicationRequest.extension:effectiveDosePeriod</t>
@@ -533,7 +533,7 @@
     <t>The period over which the medication is to be taken.  Where there are multiple dosageInstruction lines (for example, tapering doses), this is the earliest date and the latest end date of the dosageInstructions.</t>
   </si>
   <si>
-    <t>Element `MedicationRequest.effectiveDosePeriod` is will have a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
+    <t>Element `MedicationRequest.effectiveDosePeriod` has a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
   </si>
   <si>
     <t>MedicationRequest.extension:informationSource</t>
@@ -553,7 +553,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationRequest.informationSource` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationRequest.informationSource` is will have a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
+Element `MedicationRequest.informationSource` has a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -679,7 +679,7 @@
   </si>
   <si>
     <t>Note that the target element context `MedicationRequest.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `MedicationRequest.status` is mapped to FHIR R4 element `MedicationRequest.status`.</t>
+Element `MedicationRequest.status` has is mapped to FHIR R4 element `MedicationRequest.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicationRequest.status.value</t>
@@ -1063,7 +1063,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationRequest.performer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationRequest.performer` is mapped to FHIR R4 element `MedicationRequest.performer`.</t>
+Element `MedicationRequest.performer` has is mapped to FHIR R4 element `MedicationRequest.performer`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicationRequest.performer.reference</t>
@@ -1418,42 +1418,20 @@
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
-    <t>MedicationRequest.dispenseRequest.extension:dispenserInstruction</t>
-  </si>
-  <si>
-    <t>dispenserInstruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.dispenseRequest.dispenserInstruction|0.0.1-snapshot-3}
+    <t>MedicationRequest.dispenseRequest.extension:dispenseRequest</t>
+  </si>
+  <si>
+    <t>dispenseRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.dispenseRequest|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MedicationRequest.dispenseRequest.dispenserInstruction from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Provides additional information to the dispenser, for example, counselling to be provided to the patient.</t>
-  </si>
-  <si>
-    <t>Element `MedicationRequest.dispenseRequest.dispenserInstruction` is will have a context of MedicationRequest.dispenseRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.extension:doseAdministrationAid</t>
-  </si>
-  <si>
-    <t>doseAdministrationAid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.dispenseRequest.doseAdministrationAid|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationRequest.dispenseRequest.doseAdministrationAid from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Provides information about the type of adherence packaging to be supplied for the medication dispense.</t>
-  </si>
-  <si>
-    <t>Element `MedicationRequest.dispenseRequest.doseAdministrationAid` is will have a context of MedicationRequest.dispenseRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
+    <t>Cross-version extension for MedicationRequest.dispenseRequest from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MedicationRequest.dispenseRequest` has is mapped to FHIR R4 element `MedicationRequest.dispenseRequest`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.modifierExtension</t>
@@ -1665,6 +1643,22 @@
   </si>
   <si>
     <t>MedicationRequest.substitution.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.extension:substitution</t>
+  </si>
+  <si>
+    <t>substitution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.substitution|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationRequest.substitution from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MedicationRequest.substitution` has is mapped to FHIR R4 element `MedicationRequest.substitution`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.modifierExtension</t>
@@ -2099,7 +2093,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.96484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.16015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="53.05078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2109,7 +2103,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="116.77734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="113.71875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -8683,7 +8677,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8701,10 +8695,10 @@
         <v>448</v>
       </c>
       <c r="M57" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8786,46 +8780,46 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8873,7 +8867,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>207</v>
+        <v>454</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8882,7 +8876,7 @@
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>141</v>
@@ -8894,7 +8888,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -8905,46 +8899,44 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>458</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>135</v>
+        <v>438</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -8992,19 +8984,19 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
@@ -9013,7 +9005,7 @@
         <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>133</v>
+        <v>459</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9024,10 +9016,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9050,17 +9042,15 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>438</v>
+        <v>202</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>463</v>
+        <v>322</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9109,7 +9099,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>462</v>
+        <v>205</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9121,7 +9111,7 @@
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
@@ -9130,7 +9120,7 @@
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>466</v>
+        <v>324</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9141,21 +9131,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9167,15 +9157,17 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>322</v>
+        <v>462</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9224,19 +9216,19 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
@@ -9256,14 +9248,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>174</v>
+        <v>451</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9276,24 +9268,26 @@
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="O62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9341,7 +9335,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>207</v>
+        <v>454</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9362,7 +9356,7 @@
         <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>324</v>
+        <v>133</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9373,46 +9367,42 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>458</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>135</v>
+        <v>466</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9460,19 +9450,19 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
@@ -9481,7 +9471,7 @@
         <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>133</v>
+        <v>469</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9492,10 +9482,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9518,13 +9508,13 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9575,7 +9565,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9596,7 +9586,7 @@
         <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9607,10 +9597,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9633,13 +9623,13 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9690,7 +9680,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9711,7 +9701,7 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -9722,10 +9712,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9748,16 +9738,20 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -9805,7 +9799,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9823,10 +9817,10 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>81</v>
+        <v>484</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -9837,10 +9831,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9863,20 +9857,18 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O67" t="s" s="2">
         <v>490</v>
       </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
       </c>
@@ -9924,7 +9916,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9951,15 +9943,15 @@
         <v>81</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>81</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9982,7 +9974,7 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>495</v>
@@ -9990,9 +9982,7 @@
       <c r="M68" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="N68" t="s" s="2">
-        <v>497</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -10041,7 +10031,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10059,24 +10049,24 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>500</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10099,15 +10089,17 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -10156,7 +10148,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10183,15 +10175,15 @@
         <v>81</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>506</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10214,7 +10206,7 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>508</v>
@@ -10222,9 +10214,7 @@
       <c r="M70" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="N70" t="s" s="2">
-        <v>510</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
@@ -10273,7 +10263,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10291,13 +10281,13 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>511</v>
+        <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>81</v>
@@ -10305,10 +10295,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10331,13 +10321,13 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>514</v>
+        <v>438</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10388,7 +10378,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10406,13 +10396,13 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>81</v>
+        <v>514</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
@@ -10420,10 +10410,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10446,13 +10436,13 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>438</v>
+        <v>202</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>519</v>
+        <v>322</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>520</v>
+        <v>323</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10503,7 +10493,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>518</v>
+        <v>205</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10515,16 +10505,16 @@
         <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>521</v>
+        <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>522</v>
+        <v>324</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10535,10 +10525,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10549,7 +10539,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
@@ -10561,13 +10551,13 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>322</v>
+        <v>136</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>323</v>
+        <v>137</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10606,31 +10596,29 @@
         <v>81</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC73" s="2"/>
       <c r="AD73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
@@ -10639,7 +10627,7 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -10650,21 +10638,23 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="D74" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
@@ -10676,16 +10666,16 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>135</v>
+        <v>520</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>177</v>
+        <v>522</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10744,7 +10734,7 @@
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>141</v>
@@ -10756,7 +10746,7 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -10767,14 +10757,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10796,10 +10786,10 @@
         <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>177</v>
@@ -10854,7 +10844,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10886,10 +10876,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10912,16 +10902,16 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10950,10 +10940,10 @@
         <v>221</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>81</v>
@@ -10971,7 +10961,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>90</v>
@@ -10989,24 +10979,24 @@
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11032,10 +11022,10 @@
         <v>217</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11065,10 +11055,10 @@
         <v>221</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>81</v>
@@ -11086,7 +11076,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11104,24 +11094,24 @@
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>542</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11144,13 +11134,13 @@
         <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11201,7 +11191,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11216,13 +11206,13 @@
         <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -11233,14 +11223,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11259,16 +11249,16 @@
         <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11318,7 +11308,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11339,7 +11329,7 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
@@ -11350,10 +11340,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11376,16 +11366,16 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11435,7 +11425,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11450,13 +11440,13 @@
         <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-profile-MedicationRequest.xlsx
+++ b/StructureDefinition-profile-MedicationRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8508553-06:00</t>
+    <t>2026-02-20T11:59:20.880201-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationRequest|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationRequest</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -462,7 +462,7 @@
     <t>statusChanged</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.statusChanged|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.statusChanged}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>device</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.device|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.device}
 </t>
   </si>
   <si>
@@ -504,7 +504,7 @@
     <t>renderedDosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.renderedDosageInstruction|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.renderedDosageInstruction}
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>effectiveDosePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.effectiveDosePeriod|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.effectiveDosePeriod}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -671,7 +671,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.status|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.status}
 </t>
   </si>
   <si>
@@ -1424,7 +1424,7 @@
     <t>dispenseRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.dispenseRequest|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.dispenseRequest}
 </t>
   </si>
   <si>
@@ -1651,7 +1651,7 @@
     <t>substitution</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.substitution|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.substitution}
 </t>
   </si>
   <si>
@@ -1683,7 +1683,7 @@
     <t>Identifies the type of substitution allowed.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
   </si>
   <si>
     <t>code</t>
@@ -1704,7 +1704,7 @@
     <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
   </si>
   <si>
     <t>not mapped</t>
@@ -2118,7 +2118,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="140.703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.33203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-MedicationRequest.xlsx
+++ b/StructureDefinition-profile-MedicationRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="524">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.880201-06:00</t>
+    <t>2026-02-21T13:36:54.2837296-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationRequest</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationRequest|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -462,7 +462,7 @@
     <t>statusChanged</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.statusChanged}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.statusChanged|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>device</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.device}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.device|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -504,7 +504,7 @@
     <t>renderedDosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.renderedDosageInstruction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.renderedDosageInstruction|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>effectiveDosePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.effectiveDosePeriod}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.effectiveDosePeriod|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -534,26 +534,6 @@
   </si>
   <si>
     <t>Element `MedicationRequest.effectiveDosePeriod` has a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension:informationSource</t>
-  </si>
-  <si>
-    <t>informationSource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationRequest.informationSource from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationRequest.informationSource` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationRequest.informationSource` has a context of MedicationRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -671,7 +651,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -679,7 +659,7 @@
   </si>
   <si>
     <t>Note that the target element context `MedicationRequest.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `MedicationRequest.status` has is mapped to FHIR R4 element `MedicationRequest.status`, but has no comparisons.</t>
+Element `MedicationRequest.status` is mapped to FHIR R4 element `MedicationRequest.status` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>MedicationRequest.status.value</t>
@@ -1032,120 +1012,6 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>MedicationRequest.performer.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationRequest.performer.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>MedicationRequest.performer.extension:performer</t>
-  </si>
-  <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationRequest.performer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DeviceDefinition,http://hl7.org/fhir/StructureDefinition/HealthcareService in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicationRequest.performer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicationRequest.performer` has is mapped to FHIR R4 element `MedicationRequest.performer`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MedicationRequest.performer.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>MedicationRequest.performer.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MedicationRequest.performer.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>MedicationRequest.performer.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>MedicationRequest.performerType</t>
   </si>
   <si>
@@ -1415,23 +1281,54 @@
     <t>MedicationRequest.dispenseRequest.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
-    <t>MedicationRequest.dispenseRequest.extension:dispenseRequest</t>
-  </si>
-  <si>
-    <t>dispenseRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.dispenseRequest}
+    <t>MedicationRequest.dispenseRequest.extension:dispenserInstruction</t>
+  </si>
+  <si>
+    <t>dispenserInstruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.dispenseRequest.dispenserInstruction|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MedicationRequest.dispenseRequest from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MedicationRequest.dispenseRequest` has is mapped to FHIR R4 element `MedicationRequest.dispenseRequest`, but has no comparisons.</t>
+    <t>Cross-version extension for MedicationRequest.dispenseRequest.dispenserInstruction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Provides additional information to the dispenser, for example, counselling to be provided to the patient.</t>
+  </si>
+  <si>
+    <t>Element `MedicationRequest.dispenseRequest.dispenserInstruction` has a context of MedicationRequest.dispenseRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.extension:doseAdministrationAid</t>
+  </si>
+  <si>
+    <t>doseAdministrationAid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.dispenseRequest.doseAdministrationAid|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicationRequest.dispenseRequest.doseAdministrationAid from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Provides information about the type of adherence packaging to be supplied for the medication dispense.</t>
+  </si>
+  <si>
+    <t>Element `MedicationRequest.dispenseRequest.doseAdministrationAid` has a context of MedicationRequest.dispenseRequest based on following the parent source element upwards and mapping to `MedicationRequest`.</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.modifierExtension</t>
@@ -1645,22 +1542,6 @@
     <t>MedicationRequest.substitution.extension</t>
   </si>
   <si>
-    <t>MedicationRequest.substitution.extension:substitution</t>
-  </si>
-  <si>
-    <t>substitution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicationRequest.substitution}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicationRequest.substitution from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MedicationRequest.substitution` has is mapped to FHIR R4 element `MedicationRequest.substitution`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>MedicationRequest.substitution.modifierExtension</t>
   </si>
   <si>
@@ -1683,7 +1564,7 @@
     <t>Identifies the type of substitution allowed.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode|3.0.0</t>
   </si>
   <si>
     <t>code</t>
@@ -1704,7 +1585,7 @@
     <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason|3.0.0</t>
   </si>
   <si>
     <t>not mapped</t>
@@ -2084,7 +1965,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO80"/>
+  <dimension ref="A1:AO72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2093,7 +1974,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.16015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="53.05078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2103,7 +1984,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="113.71875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="116.77734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2118,10 +1999,10 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="140.703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.33203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="52.43359375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3669,13 +3550,11 @@
         <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3688,24 +3567,26 @@
         <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>81</v>
       </c>
@@ -3753,7 +3634,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3774,7 +3655,7 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -3785,14 +3666,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3805,26 +3686,24 @@
         <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O15" t="s" s="2">
         <v>178</v>
       </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3872,7 +3751,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3884,30 +3763,30 @@
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>81</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3915,31 +3794,31 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3965,13 +3844,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3989,13 +3868,13 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
@@ -4004,27 +3883,27 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4032,7 +3911,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
@@ -4041,23 +3920,21 @@
         <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -4082,13 +3959,13 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
@@ -4106,10 +3983,10 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>90</v>
@@ -4118,19 +3995,19 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -4138,10 +4015,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4149,10 +4026,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -4164,13 +4041,13 @@
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4209,31 +4086,29 @@
         <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
@@ -4253,12 +4128,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4267,7 +4144,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4279,15 +4156,17 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -4324,17 +4203,19 @@
         <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4343,7 +4224,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>141</v>
@@ -4366,20 +4247,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>90</v>
@@ -4394,17 +4273,15 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -4453,19 +4330,19 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
@@ -4485,10 +4362,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4511,15 +4388,17 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4544,13 +4423,13 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
@@ -4568,7 +4447,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4580,16 +4459,16 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4600,10 +4479,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4611,7 +4490,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>90</v>
@@ -4620,22 +4499,22 @@
         <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4661,13 +4540,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4685,10 +4564,10 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>90</v>
@@ -4700,16 +4579,16 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4717,10 +4596,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4728,31 +4607,31 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>110</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4778,13 +4657,13 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -4802,13 +4681,13 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
@@ -4817,16 +4696,16 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -4834,10 +4713,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4848,7 +4727,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4857,20 +4736,18 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4895,13 +4772,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -4919,13 +4796,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -4934,16 +4811,16 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
@@ -4951,10 +4828,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4971,21 +4848,23 @@
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -5010,13 +4889,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -5034,7 +4913,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5049,16 +4928,16 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -5086,7 +4965,7 @@
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>91</v>
@@ -5100,9 +4979,7 @@
       <c r="M26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5172,7 +5049,7 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5183,10 +5060,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5194,7 +5071,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
@@ -5209,15 +5086,17 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5242,13 +5121,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -5266,10 +5145,10 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>90</v>
@@ -5281,27 +5160,27 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5324,16 +5203,16 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5359,31 +5238,31 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>90</v>
@@ -5398,27 +5277,27 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5426,7 +5305,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>90</v>
@@ -5438,19 +5317,19 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5500,10 +5379,10 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>90</v>
@@ -5515,27 +5394,27 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5546,7 +5425,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5558,17 +5437,15 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5617,13 +5494,13 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
@@ -5632,19 +5509,19 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
@@ -5663,7 +5540,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5672,7 +5549,7 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>294</v>
@@ -5738,7 +5615,7 @@
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
@@ -5750,24 +5627,24 @@
         <v>297</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5790,13 +5667,13 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5847,7 +5724,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5862,19 +5739,19 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>307</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -5902,7 +5779,7 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>309</v>
@@ -5983,10 +5860,10 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5994,10 +5871,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6017,10 +5894,10 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>315</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>316</v>
@@ -6028,7 +5905,9 @@
       <c r="M34" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6053,13 +5932,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6077,7 +5956,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6092,16 +5971,16 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
@@ -6109,10 +5988,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6135,13 +6014,13 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>202</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6192,7 +6071,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6204,7 +6083,7 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
@@ -6213,10 +6092,10 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -6224,10 +6103,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6250,15 +6129,17 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>136</v>
+        <v>330</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6283,31 +6164,31 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6319,34 +6200,32 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6355,7 +6234,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6367,16 +6246,16 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6426,7 +6305,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>207</v>
+        <v>340</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6438,19 +6317,19 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6458,10 +6337,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6472,7 +6351,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6484,17 +6363,15 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>202</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6543,28 +6420,28 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>133</v>
+        <v>352</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6575,10 +6452,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6589,7 +6466,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6604,14 +6481,12 @@
         <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6636,13 +6511,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6660,13 +6535,13 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
@@ -6681,7 +6556,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>133</v>
+        <v>352</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6692,10 +6567,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6706,7 +6581,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -6718,17 +6593,15 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>181</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6777,13 +6650,13 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
@@ -6792,13 +6665,13 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6809,10 +6682,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6835,18 +6708,18 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6894,7 +6767,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6909,13 +6782,13 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>133</v>
+        <v>367</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6926,10 +6799,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6949,19 +6822,19 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6987,13 +6860,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -7011,7 +6884,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7026,13 +6899,13 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7043,10 +6916,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7057,7 +6930,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -7069,13 +6942,13 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7126,13 +6999,13 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
@@ -7141,16 +7014,16 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7158,10 +7031,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7184,17 +7057,15 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>217</v>
+        <v>382</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7219,13 +7090,13 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -7243,7 +7114,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7258,27 +7129,27 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>381</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7301,16 +7172,16 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7360,7 +7231,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7375,16 +7246,16 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7392,10 +7263,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7406,7 +7277,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7415,16 +7286,16 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7475,13 +7346,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7490,13 +7361,13 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>393</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>399</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7507,10 +7378,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7521,7 +7392,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7530,16 +7401,16 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7590,19 +7461,19 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>395</v>
+        <v>199</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
@@ -7611,7 +7482,7 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7622,10 +7493,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7645,16 +7516,16 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>135</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
+        <v>136</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>401</v>
+        <v>137</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7693,19 +7564,17 @@
         <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>398</v>
+        <v>201</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7717,16 +7586,16 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>403</v>
+        <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7737,12 +7606,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7751,7 +7622,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -7760,21 +7631,21 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>181</v>
+        <v>408</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7822,28 +7693,28 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>404</v>
+        <v>201</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>408</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7854,12 +7725,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7880,16 +7753,16 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>217</v>
+        <v>414</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7915,13 +7788,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -7939,19 +7812,19 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>410</v>
+        <v>201</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
@@ -7960,7 +7833,7 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7971,14 +7844,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7991,22 +7864,26 @@
         <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>418</v>
+        <v>135</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8054,7 +7931,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8066,16 +7943,16 @@
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>421</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>422</v>
+        <v>133</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8100,7 +7977,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -8112,15 +7989,17 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8175,7 +8054,7 @@
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
@@ -8184,13 +8063,13 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8201,10 +8080,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8215,7 +8094,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8227,17 +8106,15 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>431</v>
+        <v>196</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8286,28 +8163,28 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>430</v>
+        <v>199</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>435</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8318,21 +8195,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -8344,15 +8221,17 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>438</v>
+        <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8401,28 +8280,28 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>437</v>
+        <v>201</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>441</v>
+        <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8433,42 +8312,46 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>322</v>
+        <v>420</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8516,19 +8399,19 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>205</v>
+        <v>422</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
@@ -8537,7 +8420,7 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>324</v>
+        <v>133</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8548,10 +8431,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8562,7 +8445,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8574,13 +8457,13 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>135</v>
+        <v>434</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>136</v>
+        <v>435</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>137</v>
+        <v>436</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8619,29 +8502,31 @@
         <v>81</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>207</v>
+        <v>433</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
@@ -8650,7 +8535,7 @@
         <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8661,14 +8546,12 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>81</v>
       </c>
@@ -8689,17 +8572,15 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8748,19 +8629,19 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>207</v>
+        <v>438</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
@@ -8769,7 +8650,7 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>81</v>
+        <v>442</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8780,46 +8661,42 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>439</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8867,19 +8744,19 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
@@ -8888,7 +8765,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>133</v>
+        <v>442</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -8899,10 +8776,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8925,18 +8802,20 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -8984,7 +8863,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9002,10 +8881,10 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9016,10 +8895,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9042,15 +8921,17 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>202</v>
+        <v>455</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>322</v>
+        <v>456</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9099,7 +8980,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>205</v>
+        <v>454</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9111,41 +8992,41 @@
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>324</v>
+        <v>460</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9157,17 +9038,15 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>434</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9216,78 +9095,76 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>207</v>
+        <v>462</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>81</v>
+        <v>465</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>324</v>
+        <v>466</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>439</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9335,28 +9212,28 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>81</v>
+        <v>472</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>133</v>
+        <v>473</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9367,10 +9244,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9393,13 +9270,13 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9450,7 +9327,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9471,10 +9348,10 @@
         <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -9482,10 +9359,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9508,13 +9385,13 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>471</v>
+        <v>396</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9565,7 +9442,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9583,10 +9460,10 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9597,10 +9474,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9623,13 +9500,13 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>471</v>
+        <v>196</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>476</v>
+        <v>402</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>477</v>
+        <v>403</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9680,7 +9557,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>475</v>
+        <v>199</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9692,7 +9569,7 @@
         <v>81</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>81</v>
@@ -9701,7 +9578,7 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>474</v>
+        <v>404</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -9712,21 +9589,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
@@ -9738,20 +9615,18 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>479</v>
+        <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -9799,28 +9674,28 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>478</v>
+        <v>201</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>484</v>
+        <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>485</v>
+        <v>404</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -9838,37 +9713,39 @@
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>487</v>
+        <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>488</v>
+        <v>420</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>489</v>
+        <v>421</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>81</v>
       </c>
@@ -9916,42 +9793,42 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>486</v>
+        <v>422</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>492</v>
+        <v>133</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>493</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9959,7 +9836,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>90</v>
@@ -9974,15 +9851,17 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -10007,13 +9886,13 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>81</v>
+        <v>492</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>81</v>
+        <v>493</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -10031,10 +9910,10 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>90</v>
@@ -10049,24 +9928,24 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10089,17 +9968,15 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>471</v>
+        <v>211</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -10124,13 +10001,13 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>81</v>
+        <v>499</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -10148,7 +10025,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10166,24 +10043,24 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>81</v>
+        <v>503</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10206,13 +10083,13 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10263,7 +10140,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10278,16 +10155,16 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>81</v>
+        <v>508</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>81</v>
@@ -10295,21 +10172,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>81</v>
+        <v>511</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -10321,15 +10198,17 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -10378,13 +10257,13 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
@@ -10396,10 +10275,10 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>514</v>
+        <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10410,10 +10289,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10424,7 +10303,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>81</v>
@@ -10436,15 +10315,17 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>202</v>
+        <v>518</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>322</v>
+        <v>519</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10493,965 +10374,33 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>205</v>
+        <v>517</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>324</v>
+        <v>523</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC73" s="2"/>
-      <c r="AD73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO80" t="s" s="2">
         <v>81</v>
       </c>
     </row>
